--- a/data/family_data_filled.xlsx
+++ b/data/family_data_filled.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>leonid.png</t>
+          <t>id1-leonid.png</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,9 @@
           <t>3, 4, 5</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>Halle, Germany</t>
@@ -658,7 +660,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>elena.png</t>
+          <t>id2-elena.png</t>
         </is>
       </c>
     </row>
@@ -705,7 +707,9 @@
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Palatka, Magadan region, Russia</t>
@@ -723,7 +727,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>sergey.png</t>
+          <t>id3-sergey.png</t>
         </is>
       </c>
     </row>
@@ -770,7 +774,9 @@
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Magadan, Russia</t>
@@ -837,7 +843,9 @@
           <t>7</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>Palatka, Magadan region, Russia</t>
@@ -855,7 +863,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>ms.png</t>
+          <t>id5-maksim.png</t>
         </is>
       </c>
     </row>
@@ -908,7 +916,9 @@
           <t>7</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>Petropavlovsk, Kazahstan</t>
@@ -926,7 +936,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>sophia.png</t>
+          <t>id6-sophia.png</t>
         </is>
       </c>
     </row>
@@ -969,7 +979,9 @@
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>Novosibirsk, Russia</t>
@@ -981,7 +993,11 @@
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>id7-sviatik.png</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1028,7 +1044,9 @@
           <t>12, 13</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
@@ -1075,7 +1093,9 @@
           <t>12, 13</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
@@ -1126,7 +1146,9 @@
           <t>6, 8</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
@@ -1181,7 +1203,9 @@
           <t>6, 8</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
@@ -1191,7 +1215,7 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>milana.png</t>
+          <t>id11-milana.png</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1258,9 @@
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
@@ -1283,7 +1309,9 @@
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>6</v>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
@@ -1340,7 +1368,9 @@
           <t>16, 17</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
@@ -1391,7 +1421,9 @@
           <t>16, 17</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
@@ -1450,7 +1482,9 @@
           <t>25, 26</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
@@ -1503,7 +1537,9 @@
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
@@ -1560,7 +1596,9 @@
           <t>20</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>Halle, Germany</t>
@@ -1611,7 +1649,9 @@
           <t>20</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
@@ -1660,7 +1700,9 @@
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -1711,7 +1753,9 @@
           <t>23</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -1754,7 +1798,9 @@
           <t>23</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
@@ -1795,7 +1841,9 @@
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
@@ -1842,7 +1890,9 @@
           <t>25, 26</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
@@ -1895,7 +1945,9 @@
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>6</v>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
@@ -1948,7 +2000,9 @@
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>6</v>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
@@ -2001,7 +2055,9 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
@@ -2042,7 +2098,9 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
@@ -2099,11 +2157,17 @@
           <t>2, 14, 18</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>id29-lilina.png</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2146,7 +2210,9 @@
           <t>2, 14, 18</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
@@ -2177,11 +2243,17 @@
           <t>29, 33, 34, 35</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>id31-sofia.png</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2214,11 +2286,17 @@
           <t>29, 33, 34, 35</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>id32-vasilii.png</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2253,11 +2331,17 @@
           <t>37</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>id33-fedor.png</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2296,11 +2380,17 @@
           <t>39, 40, 41</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>id34-lelia.png</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2335,11 +2425,17 @@
           <t>45, 46</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>id35-nikolay.png</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2366,7 +2462,9 @@
           <t>37</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
@@ -2401,7 +2499,9 @@
           <t>54, 55</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -2436,11 +2536,17 @@
           <t>39, 40, 41</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>id38-ivan.png</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2473,7 +2579,9 @@
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
@@ -2520,7 +2628,9 @@
           <t>42</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
@@ -2557,7 +2667,9 @@
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
@@ -2590,7 +2702,9 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
@@ -2625,7 +2739,9 @@
           <t>42</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
@@ -2656,7 +2772,9 @@
           <t>45, 46</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
@@ -2695,7 +2813,9 @@
           <t>47</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
@@ -2732,7 +2852,9 @@
           <t>49, 50</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
@@ -2765,7 +2887,9 @@
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
@@ -2800,7 +2924,9 @@
           <t>47</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
@@ -2831,7 +2957,9 @@
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
@@ -2866,7 +2994,9 @@
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
@@ -2903,11 +3033,21 @@
           <t>32, 52</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Фотография Каземира сделана  в г. Ровны в 1928 году</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>id51-kazimir.png</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2934,7 +3074,9 @@
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
@@ -2942,7 +3084,11 @@
           <t>Наша мама о нём отзывалась как об очень мудром и умном человеком.</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>id52-fedor.png</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2969,7 +3115,9 @@
           <t>54, 55</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
@@ -3002,7 +3150,9 @@
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -3035,7 +3185,9 @@
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
